--- a/nasdaq_db/seconedchance.xlsx
+++ b/nasdaq_db/seconedchance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\nasdaq_hurricane_DB\nasdaq_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BB347-9BE1-4F34-91A5-2BCBD41B5558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F33C3-F046-4A12-8847-BAEEC169C915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{446AC685-35F0-4E07-A340-80D50F144E88}"/>
+    <workbookView xWindow="3036" yWindow="1320" windowWidth="17280" windowHeight="8916" xr2:uid="{446AC685-35F0-4E07-A340-80D50F144E88}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A12E4-980B-4CCD-AF6E-901158793372}">
   <dimension ref="A1:F2517"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2233" workbookViewId="0">
-      <selection activeCell="C2432" sqref="C2432"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P367" sqref="P367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
